--- a/portfolio/allocation/50:30:10:10 Portfolio.xlsx
+++ b/portfolio/allocation/50:30:10:10 Portfolio.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Dany/portfolio/allocation/50:20:10:"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Dany/portfolio/allocation/50:30:10:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A05FA2D-D779-3C4E-B707-018695B7527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B5C3D6-F5A1-7249-A33B-A83C622FF35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-360" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
-    <sheet name="allocation" sheetId="1" r:id="rId1"/>
+    <sheet name="Allocation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -208,7 +208,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -252,8 +252,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -574,7 +574,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J7" si="1">SUMIF(B:B,I4,F:F)</f>
+        <f t="shared" ref="J4:J6" si="1">SUMIF(B:B,I4,F:F)</f>
         <v>850000</v>
       </c>
       <c r="K4" s="2">
@@ -899,11 +899,11 @@
         <v>8</v>
       </c>
       <c r="J10" s="3">
-        <f>SUMIF(C:C,I10,F:F)</f>
+        <f t="shared" ref="J10:J16" si="2">SUMIF(C:C,I10,F:F)</f>
         <v>636000</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" ref="K10:K16" si="2">J10/$J$17</f>
+        <f t="shared" ref="K10:K16" si="3">J10/$J$17</f>
         <v>8.3224286835906824E-2</v>
       </c>
     </row>
@@ -933,11 +933,11 @@
         <v>10</v>
       </c>
       <c r="J11" s="3">
-        <f>SUMIF(C:C,I11,F:F)</f>
+        <f t="shared" si="2"/>
         <v>1175000</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15375556137136875</v>
       </c>
     </row>
@@ -967,11 +967,11 @@
         <v>9</v>
       </c>
       <c r="J12" s="3">
-        <f>SUMIF(C:C,I12,F:F)</f>
+        <f t="shared" si="2"/>
         <v>1680000</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21983773881182936</v>
       </c>
     </row>
@@ -1001,11 +1001,11 @@
         <v>24</v>
       </c>
       <c r="J13" s="3">
-        <f>SUMIF(C:C,I13,F:F)</f>
+        <f t="shared" si="2"/>
         <v>751000</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8272703480764195E-2</v>
       </c>
     </row>
@@ -1035,11 +1035,11 @@
         <v>36</v>
       </c>
       <c r="J14" s="3">
-        <f>SUMIF(C:C,I14,F:F)</f>
+        <f t="shared" si="2"/>
         <v>1740000</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22768908662653756</v>
       </c>
     </row>
@@ -1069,11 +1069,11 @@
         <v>37</v>
       </c>
       <c r="J15" s="3">
-        <f>SUMIF(C:C,I15,F:F)</f>
+        <f t="shared" si="2"/>
         <v>810000</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10599319549856058</v>
       </c>
     </row>
@@ -1103,11 +1103,11 @@
         <v>42</v>
       </c>
       <c r="J16" s="3">
-        <f>SUMIF(C:C,I16,F:F)</f>
+        <f t="shared" si="2"/>
         <v>850000</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11122742737503272</v>
       </c>
     </row>
@@ -1140,11 +1140,11 @@
         <v>17</v>
       </c>
       <c r="J20" s="3">
-        <f>SUMIF(D:D,I20,F:F)</f>
+        <f t="shared" ref="J20:J29" si="4">SUMIF(D:D,I20,F:F)</f>
         <v>636000</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ref="K20:K29" si="3">J20/$J$30</f>
+        <f t="shared" ref="K20:K29" si="5">J20/$J$30</f>
         <v>8.3224286835906824E-2</v>
       </c>
     </row>
@@ -1153,11 +1153,11 @@
         <v>18</v>
       </c>
       <c r="J21" s="3">
-        <f>SUMIF(D:D,I21,F:F)</f>
+        <f t="shared" si="4"/>
         <v>992000</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12980895053650876</v>
       </c>
     </row>
@@ -1166,11 +1166,11 @@
         <v>20</v>
       </c>
       <c r="J22" s="3">
-        <f>SUMIF(D:D,I22,F:F)</f>
+        <f t="shared" si="4"/>
         <v>380000</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.9725202826485217E-2</v>
       </c>
     </row>
@@ -1179,11 +1179,11 @@
         <v>21</v>
       </c>
       <c r="J23" s="3">
-        <f>SUMIF(D:D,I23,F:F)</f>
+        <f t="shared" si="4"/>
         <v>429000</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.6137136875163571E-2</v>
       </c>
     </row>
@@ -1192,11 +1192,11 @@
         <v>19</v>
       </c>
       <c r="J24" s="3">
-        <f>SUMIF(D:D,I24,F:F)</f>
+        <f t="shared" si="4"/>
         <v>1300000</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.17011253598534415</v>
       </c>
     </row>
@@ -1205,11 +1205,11 @@
         <v>25</v>
       </c>
       <c r="J25" s="3">
-        <f>SUMIF(D:D,I25,F:F)</f>
+        <f t="shared" si="4"/>
         <v>505000</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.6082177440460618E-2</v>
       </c>
     </row>
@@ -1218,11 +1218,11 @@
         <v>31</v>
       </c>
       <c r="J26" s="3">
-        <f>SUMIF(D:D,I26,F:F)</f>
+        <f t="shared" si="4"/>
         <v>850000</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11122742737503272</v>
       </c>
     </row>
@@ -1231,11 +1231,11 @@
         <v>33</v>
       </c>
       <c r="J27" s="3">
-        <f>SUMIF(D:D,I27,F:F)</f>
+        <f t="shared" si="4"/>
         <v>810000</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10599319549856058</v>
       </c>
     </row>
@@ -1244,11 +1244,11 @@
         <v>35</v>
       </c>
       <c r="J28" s="3">
-        <f>SUMIF(D:D,I28,F:F)</f>
+        <f t="shared" si="4"/>
         <v>890000</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11646165925150484</v>
       </c>
     </row>
@@ -1257,11 +1257,11 @@
         <v>43</v>
       </c>
       <c r="J29" s="3">
-        <f>SUMIF(D:D,I29,F:F)</f>
+        <f t="shared" si="4"/>
         <v>850000</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11122742737503272</v>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
         <v>1425000</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" ref="K34:K36" si="4">J34/$J$36</f>
+        <f t="shared" ref="K34:K36" si="6">J34/$J$36</f>
         <v>0.16780499293452661</v>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
         <v>626000</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.37164390014131E-2</v>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         <v>8492000</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>

--- a/portfolio/allocation/50:30:10:10 Portfolio.xlsx
+++ b/portfolio/allocation/50:30:10:10 Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Dany/portfolio/allocation/50:30:10:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B5C3D6-F5A1-7249-A33B-A83C622FF35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C113190-800F-994F-B95F-B987AADE7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-360" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6D6F62-AF81-9E4D-96B0-03BD76BF955E}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
